--- a/Projects/PEPSICOUK/Data/display_template.xlsx
+++ b/Projects/PEPSICOUK/Data/display_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="35">
   <si>
     <t xml:space="preserve">Display Name</t>
   </si>
@@ -127,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">n. Box Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f. Head Office Gondola End</t>
   </si>
 </sst>
 </file>
@@ -220,7 +224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -245,6 +249,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -266,16 +274,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -731,6 +741,26 @@
         <v>8</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Projects/PEPSICOUK/Data/display_template.xlsx
+++ b/Projects/PEPSICOUK/Data/display_template.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="36">
   <si>
     <t xml:space="preserve">Display Name</t>
   </si>
@@ -131,6 +132,9 @@
   </si>
   <si>
     <t xml:space="preserve">f. Head Office Gondola End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c. Tesco FTG Kit (FTG)</t>
   </si>
 </sst>
 </file>
@@ -274,18 +278,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -761,6 +765,26 @@
         <v>9</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Projects/PEPSICOUK/Data/display_template.xlsx
+++ b/Projects/PEPSICOUK/Data/display_template.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -98,7 +99,7 @@
     <t xml:space="preserve">Singles Stacker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1 Chiller Baskets (FTG)</t>
+    <t xml:space="preserve">b. Chiller Baskets (FTG)</t>
   </si>
   <si>
     <t xml:space="preserve">Gondola End Shelved</t>
@@ -281,15 +282,15 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/PEPSICOUK/Data/display_template.xlsx
+++ b/Projects/PEPSICOUK/Data/display_template.xlsx
@@ -11,12 +11,14 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="43">
   <si>
     <t xml:space="preserve">Display Name</t>
   </si>
@@ -69,39 +71,57 @@
     <t xml:space="preserve">o. Full Pallet</t>
   </si>
   <si>
+    <t xml:space="preserve">h. Tesco Express Wire Bins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m. Sainsburys Wire Bin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k. Sainsbury's Large FSDU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j. Tesco Express Small Dumpbin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sainsburys FSDU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b. 10 Box Stand (FTG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d. 5 Box Stand (FTG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q. Singles Stacker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiller Baskets</t>
+  </si>
+  <si>
     <t xml:space="preserve">i. FSDU</t>
   </si>
   <si>
-    <t xml:space="preserve">h. Tesco Express Wire Bins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m. Sainsburys Wire Bin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k. Sainsbury's Large FSDU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sainsbury's Small Shipper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">j. Tesco Express Small Dumpbin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sainsburys FSDU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b. 10 Box Stand (FTG)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d. 5 Box Stand (FTG)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singles Stacker</t>
-  </si>
-  <si>
     <t xml:space="preserve">b. Chiller Baskets (FTG)</t>
   </si>
   <si>
+    <t xml:space="preserve">c. 8 Box Stand (FTG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e. 4 Box Stand (FTG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g. Sainsburys cut cases (FTG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c. Tesco FTG Kit (FTG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d. Tesco in Fixture (FTG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sainsbury FTG Fixture (FTG)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gondola End Shelved</t>
   </si>
   <si>
@@ -114,13 +134,19 @@
     <t xml:space="preserve">r. Tesco goal post display</t>
   </si>
   <si>
+    <t xml:space="preserve">f. Head Office Gondola End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p. Incremental Gondola End</t>
+  </si>
+  <si>
     <t xml:space="preserve">e. Case Display</t>
   </si>
   <si>
     <t xml:space="preserve">Shelf</t>
   </si>
   <si>
-    <t xml:space="preserve">k. Non HO Agreed shelf display</t>
+    <t xml:space="preserve">7.Non-HO Agreed shelf display</t>
   </si>
   <si>
     <t xml:space="preserve">j. Shelved Side stack</t>
@@ -132,10 +158,7 @@
     <t xml:space="preserve">n. Box Display</t>
   </si>
   <si>
-    <t xml:space="preserve">f. Head Office Gondola End</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c. Tesco FTG Kit (FTG)</t>
+    <t xml:space="preserve">g. Tesco Express Capping Shelf</t>
   </si>
 </sst>
 </file>
@@ -178,7 +201,6 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -229,7 +251,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -247,14 +269,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -279,18 +293,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -372,6 +386,7 @@
       <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -392,7 +407,6 @@
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
@@ -402,16 +416,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -422,7 +436,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
@@ -442,16 +456,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,31 +476,37 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="n">
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
@@ -496,20 +516,20 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -522,7 +542,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -536,47 +556,47 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>9</v>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -587,6 +607,7 @@
       <c r="F15" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
@@ -607,43 +628,42 @@
       <c r="F16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -651,13 +671,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>9</v>
@@ -671,13 +691,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>9</v>
@@ -691,106 +711,266 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="C23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="B24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F23"/>
+  <autoFilter ref="A1:F22"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/PEPSICOUK/Data/display_template.xlsx
+++ b/Projects/PEPSICOUK/Data/display_template.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$104</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
@@ -20,6 +20,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -469,7 +470,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -488,10 +489,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -515,21 +512,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A96" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C101" activeCellId="0" sqref="C101"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +554,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.3</v>
+        <v>0.375</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
@@ -577,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>4</v>
+        <v>5.32</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
@@ -597,7 +594,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>4</v>
+        <v>5.32</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
@@ -608,7 +605,6 @@
       <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -658,7 +654,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1.5</v>
+        <v>1.875</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -678,7 +674,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
@@ -698,7 +694,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>9</v>
@@ -758,7 +754,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
@@ -818,7 +814,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
@@ -829,7 +825,6 @@
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
@@ -879,7 +874,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>4</v>
+        <v>5.32</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
@@ -999,7 +994,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.9</v>
+        <v>1.125</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
@@ -1019,7 +1014,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>1.5</v>
+        <v>1.875</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>8</v>
@@ -1059,7 +1054,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>8</v>
@@ -1079,7 +1074,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>9</v>
@@ -1099,7 +1094,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
@@ -1119,7 +1114,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>1.5</v>
+        <v>1.875</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
@@ -1139,7 +1134,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
@@ -1159,7 +1154,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
@@ -1179,7 +1174,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
@@ -1239,7 +1234,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>1.5</v>
+        <v>1.875</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>8</v>
@@ -1259,7 +1254,7 @@
         <v>7</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
@@ -1299,7 +1294,7 @@
         <v>7</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>8</v>
@@ -1359,7 +1354,7 @@
         <v>7</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.3</v>
+        <v>0.375</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
@@ -1379,7 +1374,7 @@
         <v>7</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>9</v>
@@ -1399,7 +1394,7 @@
         <v>7</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
@@ -1439,7 +1434,7 @@
         <v>7</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>9</v>
@@ -1519,7 +1514,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.9</v>
+        <v>1.125</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>9</v>
@@ -1539,7 +1534,7 @@
         <v>7</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.3</v>
+        <v>0.375</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>8</v>
@@ -1639,7 +1634,7 @@
         <v>7</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.9</v>
+        <v>1.125</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>9</v>
@@ -1659,7 +1654,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.9</v>
+        <v>1.125</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>9</v>
@@ -1739,7 +1734,7 @@
         <v>7</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>1.5</v>
+        <v>1.875</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>8</v>
@@ -1759,7 +1754,7 @@
         <v>7</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>1.5</v>
+        <v>1.875</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
@@ -1779,7 +1774,7 @@
         <v>7</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>1.5</v>
+        <v>1.875</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>8</v>
@@ -1799,7 +1794,7 @@
         <v>7</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>8</v>
@@ -1819,7 +1814,7 @@
         <v>7</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>8</v>
@@ -1839,7 +1834,7 @@
         <v>7</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>8</v>
@@ -1859,7 +1854,7 @@
         <v>7</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>9</v>
@@ -1879,7 +1874,7 @@
         <v>7</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>9</v>
@@ -1899,7 +1894,7 @@
         <v>7</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>9</v>
@@ -1919,7 +1914,7 @@
         <v>7</v>
       </c>
       <c r="C70" s="3" t="n">
-        <v>1.5</v>
+        <v>1.875</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>8</v>
@@ -1939,7 +1934,7 @@
         <v>7</v>
       </c>
       <c r="C71" s="3" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>8</v>
@@ -1959,7 +1954,7 @@
         <v>7</v>
       </c>
       <c r="C72" s="3" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>9</v>
@@ -1979,7 +1974,7 @@
         <v>7</v>
       </c>
       <c r="C73" s="3" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>8</v>
@@ -2019,7 +2014,7 @@
         <v>7</v>
       </c>
       <c r="C75" s="3" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>8</v>
@@ -2039,7 +2034,7 @@
         <v>7</v>
       </c>
       <c r="C76" s="3" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>9</v>
@@ -2079,7 +2074,7 @@
         <v>7</v>
       </c>
       <c r="C78" s="3" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>9</v>
@@ -2099,7 +2094,7 @@
         <v>7</v>
       </c>
       <c r="C79" s="3" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>9</v>
@@ -2119,7 +2114,7 @@
         <v>7</v>
       </c>
       <c r="C80" s="3" t="n">
-        <v>1.5</v>
+        <v>1.875</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>9</v>
@@ -2139,7 +2134,7 @@
         <v>7</v>
       </c>
       <c r="C81" s="3" t="n">
-        <v>0.9</v>
+        <v>1.125</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>9</v>
@@ -2159,7 +2154,7 @@
         <v>7</v>
       </c>
       <c r="C82" s="3" t="n">
-        <v>0.3</v>
+        <v>0.375</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>8</v>
@@ -2179,7 +2174,7 @@
         <v>7</v>
       </c>
       <c r="C83" s="3" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>9</v>
@@ -2199,7 +2194,7 @@
         <v>7</v>
       </c>
       <c r="C84" s="3" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>9</v>
@@ -2219,7 +2214,7 @@
         <v>7</v>
       </c>
       <c r="C85" s="3" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>9</v>
@@ -2239,7 +2234,7 @@
         <v>7</v>
       </c>
       <c r="C86" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>9</v>
@@ -2259,7 +2254,7 @@
         <v>7</v>
       </c>
       <c r="C87" s="3" t="n">
-        <v>4</v>
+        <v>5.32</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>9</v>
@@ -2279,7 +2274,7 @@
         <v>7</v>
       </c>
       <c r="C88" s="3" t="n">
-        <v>4</v>
+        <v>5.32</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>9</v>
@@ -2299,7 +2294,7 @@
         <v>7</v>
       </c>
       <c r="C89" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>9</v>
@@ -2559,7 +2554,7 @@
         <v>7</v>
       </c>
       <c r="C102" s="3" t="n">
-        <v>1.5</v>
+        <v>1.875</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>8</v>
@@ -2579,7 +2574,7 @@
         <v>7</v>
       </c>
       <c r="C103" s="3" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>8</v>
@@ -2599,7 +2594,7 @@
         <v>7</v>
       </c>
       <c r="C104" s="3" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>9</v>
@@ -2612,7 +2607,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F22"/>
+  <autoFilter ref="A1:F104"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/PEPSICOUK/Data/display_template.xlsx
+++ b/Projects/PEPSICOUK/Data/display_template.xlsx
@@ -12,17 +12,18 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$104</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$104</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$F$104</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="114">
   <si>
     <t xml:space="preserve">Display Name</t>
   </si>
@@ -94,7 +95,7 @@
     <t xml:space="preserve">i. HO Agreed FSDU</t>
   </si>
   <si>
-    <t xml:space="preserve">j. Shelved Side stack </t>
+    <t xml:space="preserve">j. Shelved Side stack</t>
   </si>
   <si>
     <t xml:space="preserve">k. Non-HO Agreed shelf display</t>
@@ -112,7 +113,7 @@
     <t xml:space="preserve">o. HO Agreed Full Pallet</t>
   </si>
   <si>
-    <t xml:space="preserve">p. Incremental Gondola End </t>
+    <t xml:space="preserve">p. Incremental Gondola End</t>
   </si>
   <si>
     <t xml:space="preserve">r. Tesco goal post display</t>
@@ -130,10 +131,10 @@
     <t xml:space="preserve">j. Tesco Express Small Dumpbin</t>
   </si>
   <si>
-    <t xml:space="preserve">k. Shelved Side stack </t>
-  </si>
-  <si>
-    <t xml:space="preserve">l. Incremental Gondola End </t>
+    <t xml:space="preserve">k. Shelved Side stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l. Incremental Gondola End</t>
   </si>
   <si>
     <t xml:space="preserve">m. Singles Stacker</t>
@@ -169,7 +170,7 @@
     <t xml:space="preserve">h. Case Display</t>
   </si>
   <si>
-    <t xml:space="preserve">i. Head Office Gondola End </t>
+    <t xml:space="preserve">i. Head Office Gondola End</t>
   </si>
   <si>
     <t xml:space="preserve">j. HO Agreed Half Pallet</t>
@@ -178,7 +179,7 @@
     <t xml:space="preserve">k. Sainsbury's Large FSDU</t>
   </si>
   <si>
-    <t xml:space="preserve">l. Shelved Side stack </t>
+    <t xml:space="preserve">l. Shelved Side stack</t>
   </si>
   <si>
     <t xml:space="preserve">m. Sainsburys Wire Bin</t>
@@ -220,9 +221,6 @@
     <t xml:space="preserve">g. Chiller Baskets (FTG)</t>
   </si>
   <si>
-    <t xml:space="preserve">i. Head Office Gondola End</t>
-  </si>
-  <si>
     <t xml:space="preserve">o. Incremental Gondola End</t>
   </si>
   <si>
@@ -343,7 +341,7 @@
     <t xml:space="preserve">Head Office Gondola End</t>
   </si>
   <si>
-    <t xml:space="preserve">Incremental Gondola End </t>
+    <t xml:space="preserve">Incremental Gondola End</t>
   </si>
   <si>
     <t xml:space="preserve">Case Display</t>
@@ -352,7 +350,7 @@
     <t xml:space="preserve">Non-HO Agreed shelf display</t>
   </si>
   <si>
-    <t xml:space="preserve">Shelved Side stack </t>
+    <t xml:space="preserve">Shelved Side stack</t>
   </si>
   <si>
     <t xml:space="preserve">Pack Display</t>
@@ -361,9 +359,6 @@
     <t xml:space="preserve">Box Display</t>
   </si>
   <si>
-    <t xml:space="preserve">Shelved Side stack</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tesco Express Capping Shelf</t>
   </si>
   <si>
@@ -377,6 +372,9 @@
   </si>
   <si>
     <t xml:space="preserve">Non HO Agreed FSDU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asda in Fixture (FTG)</t>
   </si>
 </sst>
 </file>
@@ -386,7 +384,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -421,6 +419,13 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -436,12 +441,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium">
+        <color rgb="FFC1C7D0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC1C7D0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC1C7D0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC1C7D0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -470,7 +490,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -487,6 +507,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -500,6 +528,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC1C7D0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -515,18 +603,19 @@
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="A101" activeCellId="0" sqref="A101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,7 +635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -559,14 +648,14 @@
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -586,7 +675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -606,7 +695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -626,7 +715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -646,7 +735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -666,7 +755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -686,7 +775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -706,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -726,7 +815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -746,7 +835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -766,7 +855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -786,7 +875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -806,7 +895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -826,7 +915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -846,7 +935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -866,7 +955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
@@ -886,7 +975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -906,7 +995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
@@ -926,7 +1015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -946,7 +1035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -966,7 +1055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
@@ -986,7 +1075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
@@ -1006,7 +1095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -1026,7 +1115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
@@ -1046,7 +1135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -1059,14 +1148,14 @@
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1086,7 +1175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
@@ -1106,7 +1195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
@@ -1126,7 +1215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
@@ -1146,7 +1235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
@@ -1166,7 +1255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
@@ -1186,7 +1275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -1206,7 +1295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -1226,7 +1315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
@@ -1246,7 +1335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
@@ -1266,7 +1355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
@@ -1286,7 +1375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>49</v>
       </c>
@@ -1306,7 +1395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>50</v>
       </c>
@@ -1326,7 +1415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>51</v>
       </c>
@@ -1346,7 +1435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>52</v>
       </c>
@@ -1366,7 +1455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>53</v>
       </c>
@@ -1386,7 +1475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>54</v>
       </c>
@@ -1406,7 +1495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>55</v>
       </c>
@@ -1426,7 +1515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>56</v>
       </c>
@@ -1446,7 +1535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>57</v>
       </c>
@@ -1466,7 +1555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
@@ -1486,7 +1575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>59</v>
       </c>
@@ -1506,7 +1595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>60</v>
       </c>
@@ -1526,7 +1615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>61</v>
       </c>
@@ -1546,9 +1635,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>16</v>
@@ -1566,9 +1655,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>16</v>
@@ -1586,9 +1675,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>13</v>
@@ -1606,9 +1695,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>13</v>
@@ -1626,9 +1715,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>7</v>
@@ -1646,9 +1735,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>7</v>
@@ -1666,9 +1755,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>13</v>
@@ -1686,9 +1775,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>13</v>
@@ -1706,9 +1795,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>13</v>
@@ -1726,9 +1815,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>7</v>
@@ -1746,9 +1835,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>7</v>
@@ -1766,9 +1855,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>7</v>
@@ -1786,9 +1875,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>7</v>
@@ -1806,9 +1895,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>7</v>
@@ -1826,9 +1915,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>7</v>
@@ -1846,9 +1935,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>7</v>
@@ -1866,9 +1955,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>7</v>
@@ -1886,9 +1975,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>7</v>
@@ -1906,9 +1995,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>7</v>
@@ -1926,9 +2015,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>7</v>
@@ -1946,9 +2035,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>7</v>
@@ -1966,9 +2055,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>7</v>
@@ -1986,9 +2075,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>7</v>
@@ -2006,9 +2095,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>7</v>
@@ -2026,9 +2115,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>7</v>
@@ -2046,9 +2135,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>7</v>
@@ -2066,9 +2155,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>7</v>
@@ -2086,9 +2175,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>7</v>
@@ -2106,9 +2195,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>7</v>
@@ -2126,9 +2215,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>7</v>
@@ -2146,9 +2235,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>7</v>
@@ -2166,9 +2255,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>7</v>
@@ -2186,9 +2275,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>7</v>
@@ -2206,9 +2295,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>7</v>
@@ -2226,9 +2315,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>7</v>
@@ -2246,9 +2335,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>7</v>
@@ -2266,9 +2355,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>7</v>
@@ -2286,9 +2375,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>7</v>
@@ -2306,9 +2395,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>16</v>
@@ -2326,9 +2415,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>16</v>
@@ -2346,9 +2435,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>16</v>
@@ -2366,9 +2455,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>16</v>
@@ -2386,9 +2475,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>13</v>
@@ -2406,9 +2495,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>13</v>
@@ -2426,9 +2515,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>13</v>
@@ -2446,9 +2535,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>13</v>
@@ -2466,9 +2555,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>13</v>
@@ -2486,9 +2575,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>13</v>
@@ -2500,15 +2589,15 @@
         <v>9</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>13</v>
@@ -2526,83 +2615,83 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="3" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="s">
+      <c r="B102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" s="3" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="s">
+      <c r="B103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C104" s="3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" s="3" t="s">
+        <v>5.3</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="6" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Projects/PEPSICOUK/Data/display_template.xlsx
+++ b/Projects/PEPSICOUK/Data/display_template.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$104</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$105</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
@@ -20,8 +20,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$104</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$F$104</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$105</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="115">
   <si>
     <t xml:space="preserve">Display Name</t>
   </si>
@@ -206,7 +205,7 @@
     <t xml:space="preserve">n. Stacking Tray</t>
   </si>
   <si>
-    <t xml:space="preserve">o.  Box Display</t>
+    <t xml:space="preserve">o. Box Display</t>
   </si>
   <si>
     <t xml:space="preserve">q. Pack Display</t>
@@ -338,16 +337,16 @@
     <t xml:space="preserve">Tesco goal post display</t>
   </si>
   <si>
-    <t xml:space="preserve">Head Office Gondola End</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incremental Gondola End</t>
+    <t xml:space="preserve">HO Agreed Gondola End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non HO Gondola End</t>
   </si>
   <si>
     <t xml:space="preserve">Case Display</t>
   </si>
   <si>
-    <t xml:space="preserve">Non-HO Agreed shelf display</t>
+    <t xml:space="preserve">Non HO Agreed shelf display</t>
   </si>
   <si>
     <t xml:space="preserve">Shelved Side stack</t>
@@ -375,6 +374,9 @@
   </si>
   <si>
     <t xml:space="preserve">Asda in Fixture (FTG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morrisons FTG Kit (FTG)</t>
   </si>
 </sst>
 </file>
@@ -490,7 +492,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -517,6 +519,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -600,22 +606,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A101" activeCellId="0" sqref="A101"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C92" activeCellId="0" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1023" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,7 +820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2695,8 +2700,28 @@
         <v>9</v>
       </c>
     </row>
+    <row r="105" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F104"/>
+  <autoFilter ref="A1:F105"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/PEPSICOUK/Data/display_template.xlsx
+++ b/Projects/PEPSICOUK/Data/display_template.xlsx
@@ -340,7 +340,7 @@
     <t xml:space="preserve">HO Agreed Gondola End</t>
   </si>
   <si>
-    <t xml:space="preserve">Non HO Gondola End</t>
+    <t xml:space="preserve">Non HO Agreed Gondola End</t>
   </si>
   <si>
     <t xml:space="preserve">Case Display</t>
@@ -492,7 +492,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -513,12 +513,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -608,8 +612,8 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C92" activeCellId="0" sqref="C92"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F99" activeCellId="0" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -820,7 +824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2460,23 +2464,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="s">
+    <row r="93" s="6" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" s="3" t="s">
+      <c r="C93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2681,27 +2685,27 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C104" s="3" t="n">
         <v>5.3</v>
       </c>
-      <c r="D104" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" s="6" t="s">
+      <c r="D104" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="8" t="s">
         <v>114</v>
       </c>
       <c r="B105" s="3" t="s">
